--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -63,64 +63,42 @@
     <t>selfneedstat</t>
   </si>
   <si>
-    <t>鹰击</t>
-  </si>
-  <si>
-    <t>驱除</t>
-  </si>
-  <si>
-    <t>如果目标死亡就将其从游戏中排除</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方血量最高的单位造成2倍物理伤害，并施加失血状态，持续三回合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +119,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -191,20 +168,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -495,167 +469,139 @@
     <col min="5" max="16384" width="9.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
+      <c r="A3" s="3">
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,100 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>fireneed</t>
+    <t>skillName</t>
+  </si>
+  <si>
+    <t>fireNeed</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>afterskills</t>
-  </si>
-  <si>
-    <t>needperform</t>
-  </si>
-  <si>
-    <t>ispresettarget</t>
-  </si>
-  <si>
-    <t>hurtid</t>
-  </si>
-  <si>
-    <t>buffids</t>
-  </si>
-  <si>
-    <t>targetselectid</t>
-  </si>
-  <si>
-    <t>istargetconditon</t>
-  </si>
-  <si>
-    <t>targetneedbelong</t>
-  </si>
-  <si>
-    <t>targetneedstat</t>
-  </si>
-  <si>
-    <t>selfneedstat</t>
+    <t>buffsIdToTarget</t>
+  </si>
+  <si>
+    <t>hurtId</t>
+  </si>
+  <si>
+    <t>targetSelectId</t>
+  </si>
+  <si>
+    <t>isNoPerformance</t>
+  </si>
+  <si>
+    <t>isSelectInBattle</t>
+  </si>
+  <si>
+    <t>targetNeedBelong</t>
+  </si>
+  <si>
+    <t>targetNeedStat</t>
+  </si>
+  <si>
+    <t>selfNeedStat</t>
+  </si>
+  <si>
+    <t>affectFunStrId</t>
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>num_ls</t>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
+  </si>
+  <si>
+    <t>鹰击</t>
+  </si>
+  <si>
+    <t>测试一下不行？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,29 +92,164 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +258,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,22 +459,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -172,27 +724,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,158 +1046,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="1"/>
-    <col min="4" max="4" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.375" style="1"/>
+    <col min="1" max="3" width="9.375" style="3"/>
+    <col min="4" max="4" width="32.125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +19,13 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -41,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -52,15 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -68,9 +57,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -99,9 +86,21 @@
     <t>description</t>
   </si>
   <si>
+    <t>hurtIdToSelf</t>
+  </si>
+  <si>
+    <t>buffsIdToSelf</t>
+  </si>
+  <si>
+    <t>hurtIdToTarget</t>
+  </si>
+  <si>
     <t>buffsIdToTarget</t>
   </si>
   <si>
+    <t>affectFunStrId</t>
+  </si>
+  <si>
     <t>targetSelectId</t>
   </si>
   <si>
@@ -111,69 +110,56 @@
     <t>isSelectInBattle</t>
   </si>
   <si>
+    <t>selectNeedStat</t>
+  </si>
+  <si>
+    <t>selectNeedBelong</t>
+  </si>
+  <si>
     <t>selfNeedStat</t>
   </si>
   <si>
-    <t>affectFunStrId</t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int_ls</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
+    <t>击</t>
+  </si>
+  <si>
     <t>测试一下不行？</t>
   </si>
   <si>
-    <t>击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hurtIdToSelf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int_ls</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffsIdToSelf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hurtIdToTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectNeedBelong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectNeedStat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>对敌方1倍伤害</t>
+  </si>
+  <si>
+    <t>很特殊的技能</t>
+  </si>
+  <si>
+    <t>testskillfunc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,41 +171,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,30 +334,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -274,9 +542,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -303,17 +813,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -571,35 +1125,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
-    <col min="4" max="4" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
+    <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.375" style="3"/>
-    <col min="12" max="13" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,57 +1166,57 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -671,44 +1225,47 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
@@ -725,14 +1282,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -31,6 +31,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -55,6 +57,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -63,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -127,9 +131,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>int_ls</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -153,6 +154,9 @@
   <si>
     <t>isNoUseDefaultPerf</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
 </sst>
 </file>
@@ -171,12 +175,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,16 +190,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -559,7 +568,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -610,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
@@ -642,13 +651,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
@@ -657,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>15</v>
@@ -677,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -709,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -729,13 +738,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -580,7 +580,7 @@
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
     <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="3"/>
+    <col min="11" max="11" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
     <col min="15" max="15" width="12.25" style="3" customWidth="1"/>
@@ -694,11 +694,11 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +19,13 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -41,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -50,14 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -66,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>id</t>
   </si>
@@ -113,6 +104,9 @@
     <t>targetSelectId</t>
   </si>
   <si>
+    <t>isNoUseDefaultPerf</t>
+  </si>
+  <si>
     <t>isSelectInBattle</t>
   </si>
   <si>
@@ -122,48 +116,47 @@
     <t>selectNeedBelong</t>
   </si>
   <si>
-    <t>selfNeedStat</t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>击</t>
   </si>
   <si>
-    <t>测试一下不行？</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>对敌方1倍伤害</t>
-  </si>
-  <si>
-    <t>很特殊的技能</t>
-  </si>
-  <si>
-    <t>testskillfunc</t>
-  </si>
-  <si>
-    <t>isNoUseDefaultPerf</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
+    <t>对最近的敌方造成1倍物理伤害</t>
+  </si>
+  <si>
+    <t>很特殊的技能哟</t>
+  </si>
+  <si>
+    <t>对选中敌方单位造成1倍物理伤害，同时给自己增加一个激怒buff</t>
+  </si>
+  <si>
+    <t>普通治疗（可复活）</t>
+  </si>
+  <si>
+    <t>对我方血量最少的单位回复 2倍*攻击 的生命</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,39 +168,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,30 +331,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -262,9 +563,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -291,17 +834,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -559,19 +1146,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
@@ -580,14 +1167,13 @@
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
     <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="3" customWidth="1"/>
     <col min="12" max="13" width="16.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.375" style="3"/>
+    <col min="15" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,22 +1205,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -651,13 +1234,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
@@ -666,10 +1249,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>15</v>
@@ -677,83 +1260,87 @@
       <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="6:6">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9640"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>iconName</t>
+  </si>
+  <si>
     <t>hurtIdToSelf</t>
   </si>
   <si>
@@ -101,6 +104,12 @@
     <t>affectFunStrId</t>
   </si>
   <si>
+    <t>isRemovePosBuff</t>
+  </si>
+  <si>
+    <t>isRemoveNegBuff</t>
+  </si>
+  <si>
     <t>targetSelectId</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
     <t>对最近的敌方造成1倍物理伤害</t>
   </si>
   <si>
+    <t>skill_icon_attack_png</t>
+  </si>
+  <si>
     <t>很特殊的技能哟</t>
   </si>
   <si>
@@ -144,6 +156,12 @@
   </si>
   <si>
     <t>对我方血量最少的单位回复 2倍*攻击 的生命</t>
+  </si>
+  <si>
+    <t>驱散</t>
+  </si>
+  <si>
+    <t>驱散选中目标所有buff</t>
   </si>
 </sst>
 </file>
@@ -152,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -179,6 +197,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,6 +212,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,7 +241,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -204,6 +251,74 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,112 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,7 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,175 +397,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,17 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,11 +582,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +627,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,25 +648,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,85 +666,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,61 +753,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,28 +1152,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
-    <col min="4" max="4" width="13.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
-    <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.375" style="3"/>
+    <col min="4" max="4" width="52.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.1666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="3" customWidth="1"/>
+    <col min="10" max="13" width="14.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18" style="3" customWidth="1"/>
+    <col min="15" max="16" width="16.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,156 +1187,211 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
+    <row r="3" s="2" customFormat="1" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
+    <row r="4" s="2" customFormat="1" spans="1:17">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="b">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="M5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:6">
-      <c r="F7" s="2"/>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12360"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>isNoUseDefaultPerf</t>
+  </si>
+  <si>
+    <t>isDefPerfMove</t>
   </si>
   <si>
     <t>isSelectInBattle</t>
@@ -170,8 +173,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -197,14 +200,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,15 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,85 +306,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +376,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,133 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,11 +567,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,45 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -646,168 +664,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,54 +839,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1150,15 +1153,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="52.5" style="3" customWidth="1"/>
@@ -1168,13 +1171,13 @@
     <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="3" customWidth="1"/>
     <col min="10" max="13" width="14.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18" style="3" customWidth="1"/>
-    <col min="15" max="16" width="16.125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.375" style="3"/>
+    <col min="14" max="15" width="18" style="3" customWidth="1"/>
+    <col min="16" max="17" width="16.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1220,7 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -1226,75 +1229,81 @@
       <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>18</v>
+      <c r="R2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:13">
+    <row r="3" s="2" customFormat="1" spans="1:15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1302,22 +1311,25 @@
       <c r="M3" s="2">
         <v>2</v>
       </c>
+      <c r="O3" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:17">
+    <row r="4" s="2" customFormat="1" spans="1:18">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1329,30 +1341,33 @@
         <v>1</v>
       </c>
       <c r="O4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3">
         <v>3</v>
@@ -1360,22 +1375,25 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
+      <c r="O5" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="b">
         <v>1</v>
@@ -1386,7 +1404,10 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="3" t="b">
+      <c r="O6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33645DE9-233D-4245-9F0E-93F655F61FEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -170,14 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,151 +199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,198 +225,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -566,251 +271,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -837,61 +300,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1149,23 +568,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="52.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.1666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
@@ -1177,7 +596,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1311,11 +730,8 @@
       <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:18">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1340,9 +756,6 @@
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="b">
-        <v>0</v>
-      </c>
       <c r="P4" s="2" t="b">
         <v>1</v>
       </c>
@@ -1353,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1375,11 +788,9 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="O5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1404,20 +815,18 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="O6" s="2"/>
       <c r="P6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G7" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33645DE9-233D-4245-9F0E-93F655F61FEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35DF1B9E-6C68-4B45-A56F-90C87F9B2C87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,32 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{6E1567BB-2F9D-4347-9BE2-56CC295C12AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这里的三个用来判定卡牌能不能释放，如果不能释放会给出对应提示，并且不会消耗掉卡牌</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
@@ -32,6 +58,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -41,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -56,6 +84,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -64,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -73,12 +103,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{0B856FF4-50E4-46D3-8900-DC5C9E6B37FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以循环使用多少次，0代表无穷</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -171,13 +227,25 @@
   </si>
   <si>
     <t>驱散选中目标所有buff</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycleTimes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,12 +257,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -202,21 +272,39 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +391,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -596,7 +693,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,8 +748,11 @@
       <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -707,8 +807,11 @@
       <c r="R2" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="S2" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -731,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -766,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -790,7 +893,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -820,8 +923,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="2"/>
+      <c r="K7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35DF1B9E-6C68-4B45-A56F-90C87F9B2C87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18855" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
+    <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{6E1567BB-2F9D-4347-9BE2-56CC295C12AE}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -41,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +42,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -68,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -77,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -93,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -103,15 +90,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{0B856FF4-50E4-46D3-8900-DC5C9E6B37FB}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -119,13 +104,33 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 可以循环使用多少次，0代表无穷</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lyvoi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述中需要的buff的id</t>
         </r>
       </text>
     </comment>
@@ -134,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>id</t>
   </si>
@@ -190,6 +195,12 @@
     <t>selectNeedBelong</t>
   </si>
   <si>
+    <t>recycleTimes</t>
+  </si>
+  <si>
+    <t>otherInfosOfBuffsId</t>
+  </si>
+  <si>
     <t>str</t>
   </si>
   <si>
@@ -229,23 +240,20 @@
     <t>驱散选中目标所有buff</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recycleTimes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一张自定义卡牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,54 +265,168 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,25 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,8 +463,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -365,9 +673,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -397,17 +947,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -665,19 +1259,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="52.5" style="3" customWidth="1"/>
@@ -693,7 +1287,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,83 +1343,89 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>31</v>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -833,22 +1433,25 @@
       <c r="M3" s="2">
         <v>2</v>
       </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:20">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -868,22 +1471,25 @@
       <c r="R4" s="2">
         <v>2</v>
       </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3">
         <v>3</v>
@@ -892,22 +1498,25 @@
         <v>3</v>
       </c>
       <c r="O5" s="2"/>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="b">
         <v>1</v>
@@ -922,8 +1531,11 @@
       <c r="P6" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -934,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2"/>
       <c r="K7" s="3" t="b">
@@ -955,11 +1567,14 @@
       <c r="S7" s="3">
         <v>2</v>
       </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
   </si>
@@ -240,7 +240,34 @@
     <t>驱散选中目标所有buff</t>
   </si>
   <si>
-    <t>这是一张自定义卡牌</t>
+    <t>这是一张自定义卡牌1</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌2</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌3</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌4</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌5</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌6</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌7</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌8</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌9</t>
+  </si>
+  <si>
+    <t>这是一张自定义卡牌10</t>
   </si>
 </sst>
 </file>
@@ -248,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -275,6 +302,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -282,15 +317,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,21 +342,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +363,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -341,21 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -364,10 +416,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,9 +431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,39 +446,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,13 +492,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,121 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,43 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,9 +685,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,21 +749,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -740,34 +766,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,148 +785,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,15 +1274,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="3"/>
+    <col min="1" max="1" width="9.375" style="3"/>
+    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="52.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
@@ -1411,7 +1422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:20">
+    <row r="3" s="2" customFormat="1" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1433,11 +1444,8 @@
       <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:20">
+    <row r="4" s="2" customFormat="1" spans="1:18">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1471,11 +1479,8 @@
       <c r="R4" s="2">
         <v>2</v>
       </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1498,11 +1503,8 @@
         <v>3</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1531,13 +1533,10 @@
       <c r="P6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>33</v>
@@ -1567,8 +1566,302 @@
       <c r="S7" s="3">
         <v>2</v>
       </c>
-      <c r="T7" s="3">
-        <v>1</v>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="K8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="K9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="K10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="K11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="K12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6</v>
+      </c>
+      <c r="P12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="K13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7</v>
+      </c>
+      <c r="P13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3">
+        <v>108</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="K14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="3">
+        <v>109</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="K15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>9</v>
+      </c>
+      <c r="P15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3">
+        <v>110</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="K16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FC05E46-430B-4ABC-9A83-94D94670F7DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -219,9 +225,6 @@
     <t>对最近的敌方造成1倍物理伤害</t>
   </si>
   <si>
-    <t>skill_icon_attack_png</t>
-  </si>
-  <si>
     <t>很特殊的技能哟</t>
   </si>
   <si>
@@ -268,19 +271,17 @@
   </si>
   <si>
     <t>这是一张自定义卡牌10</t>
+  </si>
+  <si>
+    <t>CBJMS_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,158 +303,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,25 +336,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
+        <fgColor theme="7" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,176 +364,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -682,255 +388,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,62 +419,21 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1268,19 +691,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
@@ -1298,7 +721,7 @@
     <col min="19" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:13">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1435,8 +858,8 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1445,21 +868,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:18">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1480,21 +903,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="3">
         <v>3</v>
@@ -1504,21 +927,21 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="K6" s="3" t="b">
         <v>1</v>
@@ -1534,21 +957,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="2"/>
       <c r="K7" s="3" t="b">
@@ -1567,21 +990,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="2"/>
       <c r="K8" s="3" t="b">
@@ -1600,21 +1023,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="2"/>
       <c r="K9" s="3" t="b">
@@ -1633,21 +1056,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="2"/>
       <c r="K10" s="3" t="b">
@@ -1666,21 +1089,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="2"/>
       <c r="K11" s="3" t="b">
@@ -1699,21 +1122,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="2"/>
       <c r="K12" s="3" t="b">
@@ -1732,21 +1155,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G13" s="2"/>
       <c r="K13" s="3" t="b">
@@ -1765,21 +1188,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="2"/>
       <c r="K14" s="3" t="b">
@@ -1798,21 +1221,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G15" s="2"/>
       <c r="K15" s="3" t="b">
@@ -1831,21 +1254,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G16" s="2"/>
       <c r="K16" s="3" t="b">
@@ -1865,9 +1288,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FC05E46-430B-4ABC-9A83-94D94670F7DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE380337-B042-444B-968E-C09BAC8076AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,13 +26,15 @@
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{AC0AE9C4-5A76-43D1-A5FA-41C0505DD70D}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -40,7 +42,83 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否不使用默认表现，true表示不使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{6EE22CBE-3028-48AB-B459-15418849A773}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果启用了默认表现，是否要使用默认表现的移动，即移动到释放单位身边</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{7C937E5E-65A8-451B-BFF6-7835CD86CCE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+使用默认表现时，采用的攻击动画，不填写表示是"attack"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -48,13 +126,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -64,6 +143,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -72,13 +152,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -87,6 +168,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -96,13 +178,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -111,6 +194,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -118,13 +202,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lyvoi:</t>
@@ -133,10 +218,11 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-描述中需要的buff的id</t>
+描述中需要出现的buff的id</t>
         </r>
       </text>
     </comment>
@@ -145,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -274,6 +360,14 @@
   </si>
   <si>
     <t>CBJMS_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>defPerfAnim</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,29 +387,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -325,6 +397,61 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -697,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -715,13 +842,13 @@
     <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="3" customWidth="1"/>
     <col min="10" max="13" width="14.125" style="3" customWidth="1"/>
-    <col min="14" max="15" width="18" style="3" customWidth="1"/>
-    <col min="16" max="17" width="16.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.375" style="3"/>
+    <col min="14" max="16" width="18" style="3" customWidth="1"/>
+    <col min="17" max="18" width="16.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,23 +894,26 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -829,23 +959,26 @@
       <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -867,8 +1000,11 @@
       <c r="M3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -893,17 +1029,17 @@
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -926,8 +1062,9 @@
         <v>3</v>
       </c>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -953,11 +1090,12 @@
         <v>1</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>101</v>
       </c>
@@ -983,14 +1121,14 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="Q7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>102</v>
       </c>
@@ -1016,14 +1154,14 @@
       <c r="M8" s="3">
         <v>2</v>
       </c>
-      <c r="P8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="Q8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>103</v>
       </c>
@@ -1049,14 +1187,14 @@
       <c r="M9" s="3">
         <v>3</v>
       </c>
-      <c r="P9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="Q9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>104</v>
       </c>
@@ -1082,14 +1220,14 @@
       <c r="M10" s="3">
         <v>4</v>
       </c>
-      <c r="P10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="Q10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>105</v>
       </c>
@@ -1115,14 +1253,14 @@
       <c r="M11" s="3">
         <v>5</v>
       </c>
-      <c r="P11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="Q11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>106</v>
       </c>
@@ -1148,14 +1286,14 @@
       <c r="M12" s="3">
         <v>6</v>
       </c>
-      <c r="P12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="Q12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>107</v>
       </c>
@@ -1181,14 +1319,14 @@
       <c r="M13" s="3">
         <v>7</v>
       </c>
-      <c r="P13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="Q13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>108</v>
       </c>
@@ -1214,14 +1352,14 @@
       <c r="M14" s="3">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>109</v>
       </c>
@@ -1247,14 +1385,14 @@
       <c r="M15" s="3">
         <v>9</v>
       </c>
-      <c r="P15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="Q15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>110</v>
       </c>
@@ -1280,10 +1418,10 @@
       <c r="M16" s="3">
         <v>10</v>
       </c>
-      <c r="P16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
+      <c r="Q16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
         <v>11</v>
       </c>
     </row>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE380337-B042-444B-968E-C09BAC8076AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{636F48AF-A596-4DB2-91AB-7E69D247A727}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,110 @@
     <author>lyvoi</author>
   </authors>
   <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{10BB3C07-7806-47BA-BA13-56620EE8A251}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自定义的affect，配置在特定的ts文件中，这里配置其函数名，如果有，除了其他伤害外，也会造成这里的效果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B3FC1C7E-CBB9-4F97-8662-505FE106EEA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否移除正面buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{98C632BB-E621-4A1D-A6F2-CDD55FDF31FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否移除负面buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{6F443AC9-4C9D-4D10-8A2C-C6F149631A19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果按照这个规则选不到目标，卡牌会被消耗掉，但技能不会释放</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N1" authorId="0" shapeId="0" xr:uid="{AC0AE9C4-5A76-43D1-A5FA-41C0505DD70D}">
       <text>
         <r>
@@ -86,6 +190,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -95,6 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -231,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -303,12 +409,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>击</t>
-  </si>
-  <si>
-    <t>对最近的敌方造成1倍物理伤害</t>
   </si>
   <si>
     <t>很特殊的技能哟</t>
@@ -368,6 +468,18 @@
   </si>
   <si>
     <t>str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>低阶法术伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对最近的敌方目标造成1倍法术伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWantU_png</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,19 +550,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -827,7 +926,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -895,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>15</v>
@@ -960,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>23</v>
@@ -980,68 +1079,67 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2</v>
-      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
@@ -1053,63 +1151,71 @@
         <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
+      <c r="Q5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="K6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="3" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2"/>
       <c r="K7" s="3" t="b">
@@ -1119,30 +1225,30 @@
         <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2"/>
       <c r="K8" s="3" t="b">
@@ -1152,30 +1258,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2"/>
       <c r="K9" s="3" t="b">
@@ -1185,30 +1291,30 @@
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2"/>
       <c r="K10" s="3" t="b">
@@ -1218,30 +1324,30 @@
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2"/>
       <c r="K11" s="3" t="b">
@@ -1251,30 +1357,30 @@
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2"/>
       <c r="K12" s="3" t="b">
@@ -1284,30 +1390,30 @@
         <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2"/>
       <c r="K13" s="3" t="b">
@@ -1317,30 +1423,30 @@
         <v>1</v>
       </c>
       <c r="M13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T13" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2"/>
       <c r="K14" s="3" t="b">
@@ -1350,30 +1456,30 @@
         <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="G15" s="2"/>
       <c r="K15" s="3" t="b">
@@ -1383,46 +1489,39 @@
         <v>1</v>
       </c>
       <c r="M15" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="K16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>11</v>
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{636F48AF-A596-4DB2-91AB-7E69D247A727}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6105B4-0EA1-4E13-8FDF-0CA684A14062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -26,6 +26,33 @@
     <author>lyvoi</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F5016826-20AF-4FD1-8E7F-A4509660EE58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-1000用来做直接释放的卡牌
+100000+x用来做常规技能</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{10BB3C07-7806-47BA-BA13-56620EE8A251}">
       <text>
         <r>
@@ -337,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -411,75 +438,225 @@
     <t>bool</t>
   </si>
   <si>
-    <t>很特殊的技能哟</t>
-  </si>
-  <si>
-    <t>对选中敌方单位造成1倍物理伤害，同时给自己增加一个激怒buff</t>
-  </si>
-  <si>
-    <t>普通治疗（可复活）</t>
-  </si>
-  <si>
-    <t>对我方血量最少的单位回复 2倍*攻击 的生命</t>
-  </si>
-  <si>
-    <t>驱散</t>
+    <t>defPerfAnim</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWantU_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>低阶法术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准法术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对最近的敌方造成1倍法术伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选中敌方造成1倍法术伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimAttackDistanceTarge_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>低阶挥砍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准挥砍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对最近的敌方造成1倍物理伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>低阶治愈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复我方血量最少的单位 1 * 攻击 的血量（不可复活）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinforce_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescue_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>驱散选中目标所有buff</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌1</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌2</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌3</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌4</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌5</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌6</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌7</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌8</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌9</t>
-  </si>
-  <si>
-    <t>这是一张自定义卡牌10</t>
-  </si>
-  <si>
-    <t>CBJMS_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>defPerfAnim</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>低阶法术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对最近的敌方目标造成1倍法术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IWantU_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围法术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方单位造成0.5倍法术伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shotgun_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coldweapon_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方单位造成0.5倍物理伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治愈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariableBuff_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复我方血量最少的单位 0.5 * 攻击 的血量（可复活）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复我方全体单位 0.3 * 攻击的血量（不可复活）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincible_35_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carcano1938_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将选中敌方单位从游戏中排除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选中敌方造成1倍物理伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加护盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加我方全体单位 0.3 * 攻击的护盾值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围挥砍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体复活</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体复活</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复我方全体单位 0.1 * 攻击的血量（可复活）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定点驱散</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级强化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中单位增加10%的攻击，持续2回合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>powBuffSelf_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏挥砍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对场上所有单位造成30点物理伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>air_attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>png</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定驱除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命挥砍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定敌方单位造成30点物理伤害，如果造成单位死亡则将其从游戏中移除</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +730,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -975,7 +1158,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -994,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>15</v>
@@ -1040,7 +1223,7 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1059,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>23</v>
@@ -1079,117 +1262,103 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>210001</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
+        <v>7</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2">
+        <v>210002</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3">
+      <c r="H5" s="2">
+        <v>100001</v>
+      </c>
+      <c r="M5" s="2">
         <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>101</v>
+        <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="K6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="b">
-        <v>1</v>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100001</v>
       </c>
       <c r="M6" s="3">
         <v>1</v>
@@ -1197,332 +1366,342 @@
       <c r="Q6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="3">
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>102</v>
+        <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100002</v>
+      </c>
+      <c r="M7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="K7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>200001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>200001</v>
+      </c>
+      <c r="M8" s="2">
         <v>2</v>
       </c>
-      <c r="Q7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>103</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="K8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>4</v>
+      <c r="O8" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>104</v>
+        <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="K9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200001</v>
       </c>
       <c r="M9" s="3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="Q9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="3">
-        <v>5</v>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>105</v>
+        <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200002</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>300001</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="K10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>106</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="K11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="b">
-        <v>1</v>
+      <c r="H11" s="3">
+        <v>300001</v>
       </c>
       <c r="M11" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>107</v>
+        <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="K12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="3">
+        <v>300002</v>
       </c>
       <c r="M12" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>108</v>
+        <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="K13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="b">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3">
+        <v>300003</v>
       </c>
       <c r="M13" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>109</v>
+        <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="K14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="3">
+        <v>300004</v>
       </c>
       <c r="M14" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>110</v>
+        <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="K15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3">
+        <v>300004</v>
       </c>
       <c r="M15" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
+        <v>400001</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>400002</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="3">
         <v>100001</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="2">
-        <v>100001</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>500001</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="3">
+        <v>500001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
         <v>2</v>
       </c>
-      <c r="O16" s="2" t="b">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6105B4-0EA1-4E13-8FDF-0CA684A14062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F5016826-20AF-4FD1-8E7F-A4509660EE58}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -42,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,15 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{10BB3C07-7806-47BA-BA13-56620EE8A251}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -69,9 +57,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,15 +65,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B3FC1C7E-CBB9-4F97-8662-505FE106EEA4}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -95,9 +79,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,15 +87,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{98C632BB-E621-4A1D-A6F2-CDD55FDF31FE}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -121,9 +101,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,15 +109,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{6F443AC9-4C9D-4D10-8A2C-C6F149631A19}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -147,9 +123,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -157,15 +131,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{AC0AE9C4-5A76-43D1-A5FA-41C0505DD70D}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -173,9 +145,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -183,15 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{6EE22CBE-3028-48AB-B459-15418849A773}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -199,9 +167,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -209,15 +175,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{7C937E5E-65A8-451B-BFF6-7835CD86CCE8}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -225,9 +189,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -235,14 +197,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -251,7 +212,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -259,14 +219,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -276,7 +235,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -285,14 +243,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -301,7 +258,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -311,14 +267,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -327,7 +282,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -335,14 +289,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lyvoi:</t>
@@ -351,7 +304,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>id</t>
   </si>
@@ -411,6 +363,9 @@
     <t>isDefPerfMove</t>
   </si>
   <si>
+    <t>defPerfAnim</t>
+  </si>
+  <si>
     <t>isSelectInBattle</t>
   </si>
   <si>
@@ -438,194 +393,25 @@
     <t>bool</t>
   </si>
   <si>
-    <t>defPerfAnim</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IWantU_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>低阶法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对最近的敌方造成1倍法术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选中敌方造成1倍法术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AimAttackDistanceTarge_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>低阶挥砍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准挥砍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对最近的敌方造成1倍物理伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>低阶治愈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复我方血量最少的单位 1 * 攻击 的血量（不可复活）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reinforce_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rescue_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散选中目标所有buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌方单位造成0.5倍法术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shotgun_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coldweapon_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌方单位造成0.5倍物理伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体治愈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VariableBuff_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复我方血量最少的单位 0.5 * 攻击 的血量（可复活）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复我方全体单位 0.3 * 攻击的血量（不可复活）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invincible_35_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carcano1938_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将选中敌方单位从游戏中排除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选中敌方造成1倍物理伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加护盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加我方全体单位 0.3 * 攻击的护盾值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围挥砍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体复活</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体复活</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复我方全体单位 0.1 * 攻击的血量（可复活）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定点驱散</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级强化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中单位增加10%的攻击，持续2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>powBuffSelf_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>全屏挥砍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对场上所有单位造成30点物理伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>air_attack</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -635,36 +421,159 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>png</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命挥砍</t>
+  </si>
+  <si>
+    <t>指定敌方单位造成30点物理伤害，如果造成单位死亡则将其从游戏中移除</t>
+  </si>
+  <si>
+    <t>target_png</t>
+  </si>
+  <si>
+    <t>低阶法术</t>
+  </si>
+  <si>
+    <t>对最近的敌方造成1倍法术伤害</t>
+  </si>
+  <si>
+    <t>IWantU_png</t>
+  </si>
+  <si>
+    <t>精准法术</t>
+  </si>
+  <si>
+    <t>对选中敌方造成1倍法术伤害</t>
+  </si>
+  <si>
+    <t>AimAttackDistanceTarge_png</t>
+  </si>
+  <si>
+    <t>范围法术</t>
+  </si>
+  <si>
+    <t>对所有敌方单位造成0.5倍法术伤害</t>
+  </si>
+  <si>
+    <t>Shotgun_png</t>
+  </si>
+  <si>
+    <t>低阶挥砍</t>
+  </si>
+  <si>
+    <t>对最近的敌方造成1倍物理伤害</t>
+  </si>
+  <si>
+    <t>Fail_png</t>
+  </si>
+  <si>
+    <t>精准挥砍</t>
+  </si>
+  <si>
+    <t>对选中敌方造成1倍物理伤害</t>
+  </si>
+  <si>
+    <t>Clear_png</t>
+  </si>
+  <si>
+    <t>范围挥砍</t>
+  </si>
+  <si>
+    <t>对所有敌方单位造成0.5倍物理伤害</t>
+  </si>
+  <si>
+    <t>Coldweapon_png</t>
+  </si>
+  <si>
+    <t>低阶治愈</t>
+  </si>
+  <si>
+    <t>回复我方血量最少的单位 1 * 攻击 的血量（不可复活）</t>
+  </si>
+  <si>
+    <t>rescue_png</t>
+  </si>
+  <si>
+    <t>单体复活</t>
+  </si>
+  <si>
+    <t>回复我方血量最少的单位 0.5 * 攻击 的血量（可复活）</t>
+  </si>
+  <si>
+    <t>reinforce_png</t>
+  </si>
+  <si>
+    <t>群体治愈</t>
+  </si>
+  <si>
+    <t>回复我方全体单位 0.3 * 攻击的血量（不可复活）</t>
+  </si>
+  <si>
+    <t>VariableBuff_png</t>
+  </si>
+  <si>
+    <t>群体复活</t>
+  </si>
+  <si>
+    <t>回复我方全体单位 0.1 * 攻击的血量（可复活）</t>
+  </si>
+  <si>
+    <t>Invincible_35_png</t>
+  </si>
+  <si>
+    <t>增加护盾</t>
+  </si>
+  <si>
+    <t>增加我方全体生存单位 0.3 * 攻击的护盾值</t>
+  </si>
+  <si>
+    <t>shield_png</t>
+  </si>
+  <si>
+    <t>定点驱散</t>
+  </si>
+  <si>
+    <t>驱散选中目标所有buff</t>
+  </si>
+  <si>
+    <t>empty_png</t>
+  </si>
+  <si>
+    <t>低级强化</t>
+  </si>
+  <si>
+    <t>选中单位增加10%的攻击，持续2回合</t>
+  </si>
+  <si>
+    <t>powBuffSelf_png</t>
   </si>
   <si>
     <t>指定驱除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命挥砍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定敌方单位造成30点物理伤害，如果造成单位死亡则将其从游戏中移除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将选中敌方单位从游戏中排除</t>
+  </si>
+  <si>
+    <t>Carcano1938_png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,61 +585,168 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,25 +755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39988402966399123"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,12 +791,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -797,9 +999,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,17 +1276,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1100,19 +1588,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
@@ -1130,7 +1618,7 @@
     <col min="20" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1646,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1167,7 +1655,7 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -1177,104 +1665,104 @@
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>210001</v>
@@ -1286,27 +1774,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:20">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>210002</v>
       </c>
       <c r="M4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2" t="b">
         <v>1</v>
@@ -1318,21 +1806,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:13">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
         <v>100001</v>
@@ -1341,21 +1829,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3">
         <v>100001</v>
@@ -1373,21 +1861,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3">
         <v>100002</v>
@@ -1396,21 +1884,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" spans="1:15">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
         <v>200001</v>
@@ -1422,21 +1910,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3">
         <v>200001</v>
@@ -1457,12 +1945,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1471,7 +1959,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>200002</v>
@@ -1483,21 +1971,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3">
         <v>300001</v>
@@ -1506,21 +1994,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3">
         <v>300002</v>
@@ -1529,90 +2017,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3">
         <v>300003</v>
       </c>
       <c r="M13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3">
         <v>300004</v>
       </c>
       <c r="M14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="M15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K16" s="3" t="b">
         <v>1</v>
@@ -1630,21 +2118,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" s="3">
         <v>100001</v>
@@ -1662,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
@@ -1673,10 +2161,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H18" s="3">
         <v>500001</v>
@@ -1691,22 +2179,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D37CD7-A002-495C-A583-1906BB55F314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -35,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +54,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -58,6 +70,31 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果按照这个规则选不到目标，卡牌会被消耗掉，但技能不会释放</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +102,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -80,6 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,13 +126,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -102,6 +142,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,13 +150,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -124,20 +166,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如果按照这个规则选不到目标，卡牌会被消耗掉，但技能不会释放</t>
+是否不使用默认表现，true表示不使用</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -146,20 +190,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-是否不使用默认表现，true表示不使用</t>
+如果启用了默认表现，是否要使用默认表现的移动，即移动到释放单位身边</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -168,20 +214,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如果启用了默认表现，是否要使用默认表现的移动，即移动到释放单位身边</t>
+使用默认表现时，采用的攻击动画，不填写表示是"attack"</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -190,42 +238,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-使用默认表现时，采用的攻击动画，不填写表示是"attack"</t>
+这里的三个用来判定卡牌能不能释放，如果不能释放会给出对应提示，并且不会消耗掉卡牌</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yang Liu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-这里的三个用来判定卡牌能不能释放，如果不能释放会给出对应提示，并且不会消耗掉卡牌</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -235,6 +263,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -243,13 +272,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -258,6 +288,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -267,13 +298,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -282,6 +314,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -289,13 +322,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lyvoi:</t>
@@ -304,6 +338,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -316,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -394,15 +429,13 @@
   </si>
   <si>
     <t>全屏挥砍</t>
-  </si>
-  <si>
-    <t>对场上所有单位造成30点物理伤害</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -412,6 +445,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,6 +455,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,9 +583,6 @@
     <t>低级强化</t>
   </si>
   <si>
-    <t>选中单位增加10%的攻击，持续2回合</t>
-  </si>
-  <si>
     <t>powBuffSelf_png</t>
   </si>
   <si>
@@ -561,19 +593,38 @@
   </si>
   <si>
     <t>Carcano1938_png</t>
+  </si>
+  <si>
+    <r>
+      <t>选中单位增加20%的攻击，持续3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>~选择目标备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对场上所有单位造成30点物理伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,168 +636,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,31 +685,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399884029663991"/>
+        <fgColor theme="7" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,192 +721,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -999,255 +749,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,65 +783,316 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>选中单位</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>最近的敌方活着的单位</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>我方血量最少的单位</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>全体敌方活着的单位</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>我方全体</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>我方全体活着的单位</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>全场活着的单位</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>随机一个死亡单位</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>随机一个我方死亡单位</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>随机一个敌方死亡单位</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>随机一个我方活着的单位</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>随即一个敌方活着的单位</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>随机一个活着的单位</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>随机一个单位</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>随即一个死亡的单位</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>16</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>敌方血量最少的活着的单位</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>17</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>敌方最大血量最多的单位</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>18</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>敌方最远的活着的单位</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>19</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>自己</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>20</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>我方血量最多的活着的单位</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>21</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>我方血量最少的生存的单位</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>22</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>我方最大血量最多的单位</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>23</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>敌方最大血量最多的活着的单位</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>24</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>全场随机活着的三个单位</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>25</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>随机2个我方单位</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>26</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>随机2个我方的活着的单位</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>27</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>随机2个敌方单位</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>28</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>随机2个敌方活着的单位</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>29</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>我方攻击最高的活着的单位</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>30</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>我方血量最少的两个单位</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>31</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>敌方最近的两个活着的单位</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>32</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>敌方最近的单位</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>33</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>敌方最远的两个单位</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>34</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>敌方最远的两个活着的单位</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,37 +1347,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="3"/>
-    <col min="4" max="4" width="52.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="3" customWidth="1"/>
-    <col min="10" max="13" width="14.125" style="3" customWidth="1"/>
-    <col min="14" max="16" width="18" style="3" customWidth="1"/>
-    <col min="17" max="18" width="16.125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.375" style="3"/>
+    <col min="4" max="4" width="58.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="3" customWidth="1"/>
+    <col min="12" max="14" width="14.125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="18" style="3" customWidth="1"/>
+    <col min="18" max="19" width="16.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,59 +1392,62 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:21">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1696,59 +1460,60 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:20">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -1759,442 +1524,515 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>VLOOKUP(F3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>全场活着的单位</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>210001</v>
       </c>
-      <c r="M3" s="2">
-        <v>7</v>
-      </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:20">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>VLOOKUP(F4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>210002</v>
       </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2</v>
+      <c r="R4" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="T4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:13">
+      <c r="U4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="str">
+        <f>VLOOKUP(F5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>最近的敌方活着的单位</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>100001</v>
       </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>VLOOKUP(F6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>100001</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="R6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>VLOOKUP(F7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>全体敌方活着的单位</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>100002</v>
       </c>
-      <c r="M7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:15">
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="str">
+        <f>VLOOKUP(F8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>最近的敌方活着的单位</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>200001</v>
       </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="P8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>VLOOKUP(F9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>最近的敌方活着的单位</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
         <v>2</v>
       </c>
-      <c r="O9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>VLOOKUP(F10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>全体敌方活着的单位</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200002</v>
       </c>
-      <c r="M10" s="3">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="str">
+        <f>VLOOKUP(F11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>我方血量最少的单位</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>300001</v>
       </c>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>VLOOKUP(F12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>我方血量最少的单位</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>300002</v>
       </c>
-      <c r="M12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>VLOOKUP(F13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>我方全体</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>300003</v>
       </c>
-      <c r="M13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>VLOOKUP(F14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>我方全体</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>300004</v>
       </c>
-      <c r="M14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>VLOOKUP(F15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>我方全体活着的单位</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>300005</v>
       </c>
-      <c r="M15" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="2" t="str">
+        <f>VLOOKUP(F16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="N16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>VLOOKUP(F17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100001</v>
       </c>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="3">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>VLOOKUP(F18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="3">
         <v>500001</v>
       </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="R18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A0922C0-010F-4441-A51E-702FEE9300A2}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D37CD7-A002-495C-A583-1906BB55F314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EBE60-B814-4096-86CD-BA43B10B2180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,31 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yang Liu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-这里的三个用来判定卡牌能不能释放，如果不能释放会给出对应提示，并且不会消耗掉卡牌</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -399,9 +375,6 @@
   </si>
   <si>
     <t>defPerfAnim</t>
-  </si>
-  <si>
-    <t>isSelectInBattle</t>
   </si>
   <si>
     <t>selectNeedStat</t>
@@ -1353,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1374,12 +1347,12 @@
     <col min="11" max="11" width="12.25" style="3" customWidth="1"/>
     <col min="12" max="14" width="14.125" style="3" customWidth="1"/>
     <col min="15" max="17" width="18" style="3" customWidth="1"/>
-    <col min="18" max="19" width="16.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.375" style="3"/>
+    <col min="18" max="18" width="16.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -1437,94 +1410,88 @@
       <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>VLOOKUP(F3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1534,27 +1501,27 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2">
         <v>210001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="T3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>VLOOKUP(F4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1564,33 +1531,30 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2">
         <v>210002</v>
       </c>
-      <c r="R4" s="2" t="b">
-        <v>1</v>
+      <c r="S4" s="2">
+        <v>2</v>
       </c>
       <c r="T4" s="2">
         <v>2</v>
       </c>
-      <c r="U4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(F5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1600,24 +1564,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2">
         <v>100001</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>VLOOKUP(F6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1627,33 +1591,30 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3">
         <v>100001</v>
       </c>
-      <c r="R6" s="3" t="b">
+      <c r="R6" s="3">
         <v>1</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>VLOOKUP(F7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1663,24 +1624,24 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="3">
         <v>100002</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(F8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1690,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2">
         <v>200001</v>
@@ -1699,18 +1660,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>VLOOKUP(F9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1720,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="3">
         <v>200001</v>
@@ -1728,28 +1689,19 @@
       <c r="P9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(F10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1759,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="3">
         <v>200002</v>
@@ -1768,18 +1720,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>VLOOKUP(F11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1789,24 +1741,24 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3">
         <v>300001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>VLOOKUP(F12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1816,24 +1768,24 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="3">
         <v>300002</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>VLOOKUP(F13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1843,24 +1795,24 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="3">
         <v>300003</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>VLOOKUP(F14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1870,24 +1822,24 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="3">
         <v>300004</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>VLOOKUP(F15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1897,24 +1849,24 @@
         <v>6</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3">
         <v>300005</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>VLOOKUP(F16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1924,30 +1876,27 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R16" s="3" t="b">
+      <c r="R16" s="3">
         <v>1</v>
       </c>
-      <c r="S16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>VLOOKUP(F17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1957,33 +1906,30 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="3">
         <v>100001</v>
       </c>
-      <c r="R17" s="3" t="b">
+      <c r="R17" s="3">
         <v>1</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
       </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>VLOOKUP(F18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1993,46 +1939,36 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="3">
         <v>500001</v>
       </c>
-      <c r="R18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="S18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{6A0922C0-010F-4441-A51E-702FEE9300A2}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A0922C0-010F-4441-A51E-702FEE9300A2}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EBE60-B814-4096-86CD-BA43B10B2180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +12,24 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -45,7 +38,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,14 +46,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -70,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +68,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -94,7 +83,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,14 +90,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -118,7 +105,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,14 +112,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -142,7 +127,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,14 +134,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -166,7 +149,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -174,14 +156,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -190,7 +171,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,14 +178,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -214,7 +193,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -222,14 +200,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Yang Liu:
@@ -239,7 +216,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0:noneed
@@ -248,14 +224,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -264,7 +239,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -274,14 +248,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -290,7 +263,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -298,14 +270,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lyvoi:</t>
@@ -314,7 +285,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -327,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>id</t>
   </si>
@@ -341,6 +311,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>~选择目标备注</t>
+  </si>
+  <si>
+    <t>targetSelectId</t>
+  </si>
+  <si>
     <t>iconName</t>
   </si>
   <si>
@@ -365,9 +341,6 @@
     <t>isRemoveNegBuff</t>
   </si>
   <si>
-    <t>targetSelectId</t>
-  </si>
-  <si>
     <t>isNoUseDefaultPerf</t>
   </si>
   <si>
@@ -402,15 +375,16 @@
   </si>
   <si>
     <t>全屏挥砍</t>
+  </si>
+  <si>
+    <t>对场上所有单位造成30点物理伤害</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>air_attack</t>
     </r>
@@ -418,9 +392,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_</t>
     </r>
@@ -428,9 +400,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>png</t>
     </r>
@@ -556,19 +526,13 @@
     <t>低级强化</t>
   </si>
   <si>
-    <t>powBuffSelf_png</t>
-  </si>
-  <si>
-    <t>指定驱除</t>
-  </si>
-  <si>
-    <t>将选中敌方单位从游戏中排除</t>
-  </si>
-  <si>
-    <t>Carcano1938_png</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>选中单位增加20%的攻击，持续3</t>
     </r>
     <r>
@@ -576,28 +540,35 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>~选择目标备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对场上所有单位造成30点物理伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>powBuffSelf_png</t>
+  </si>
+  <si>
+    <t>指定驱除</t>
+  </si>
+  <si>
+    <t>将选中敌方单位从游戏中排除</t>
+  </si>
+  <si>
+    <t>Carcano1938_png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,47 +580,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,31 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39985351115451523"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,12 +785,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -722,13 +993,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,34 +1269,72 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1320,25 +1871,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="3"/>
-    <col min="4" max="4" width="58.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
@@ -1352,7 +1903,7 @@
     <col min="20" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,133 +1916,133 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="T2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>VLOOKUP(F3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1501,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2">
         <v>210001</v>
@@ -1510,18 +2061,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:20">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>VLOOKUP(F4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1531,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2">
         <v>210002</v>
@@ -1543,18 +2094,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:10">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(F5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1564,24 +2115,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2">
         <v>100001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>VLOOKUP(F6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1591,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="3">
         <v>100001</v>
@@ -1603,18 +2154,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>VLOOKUP(F7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1624,24 +2175,24 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3">
         <v>100002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" spans="1:16">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(F8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1651,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2">
         <v>200001</v>
@@ -1660,28 +2211,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>VLOOKUP(F9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>最近的敌方活着的单位</v>
+        <v>选中单位</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9" s="3">
         <v>200001</v>
@@ -1689,19 +2240,25 @@
       <c r="P9" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(F10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1711,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10" s="3">
         <v>200002</v>
@@ -1720,18 +2277,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>VLOOKUP(F11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1741,24 +2298,24 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3">
         <v>300001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>VLOOKUP(F12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1768,24 +2325,24 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J12" s="3">
         <v>300002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>VLOOKUP(F13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1795,24 +2352,24 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J13" s="3">
         <v>300003</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>VLOOKUP(F14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1822,24 +2379,24 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J14" s="3">
         <v>300004</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>VLOOKUP(F15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1849,24 +2406,24 @@
         <v>6</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J15" s="3">
         <v>300005</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>VLOOKUP(F16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1876,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N16" s="3" t="b">
         <v>1</v>
@@ -1885,18 +2442,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>70</v>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>VLOOKUP(F17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1906,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K17" s="3">
         <v>100001</v>
@@ -1918,18 +2475,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>VLOOKUP(F18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1939,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J18" s="3">
         <v>500001</v>
@@ -1948,27 +2505,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{6A0922C0-010F-4441-A51E-702FEE9300A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12220"/>
+    <workbookView windowWidth="25460" windowHeight="9500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="V1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>id</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>defPerfAnim</t>
+  </si>
+  <si>
+    <t>isCustomSelect</t>
   </si>
   <si>
     <t>selectNeedStat</t>
@@ -564,11 +567,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -590,29 +593,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -628,53 +608,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -689,23 +624,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,6 +676,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -727,14 +722,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -785,187 +805,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,11 +996,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,15 +1015,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1036,32 +1046,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,11 +1072,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,152 +1098,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,6 +1272,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,10 +1882,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -1897,13 +1902,13 @@
     <col min="10" max="10" width="14.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="3" customWidth="1"/>
     <col min="12" max="14" width="14.125" style="3" customWidth="1"/>
-    <col min="15" max="17" width="18" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.375" style="3"/>
+    <col min="15" max="18" width="18" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,91 +1963,97 @@
       <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:21">
+    <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="T2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="U2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:20">
+    <row r="3" s="2" customFormat="1" spans="1:21">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>VLOOKUP(F3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2052,27 +2063,27 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2">
         <v>210001</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:20">
+    <row r="4" s="2" customFormat="1" spans="1:21">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>VLOOKUP(F4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2082,15 +2093,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2">
         <v>210002</v>
       </c>
+      <c r="R4" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>2</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2099,13 +2116,13 @@
         <v>100001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(F5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2115,24 +2132,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2">
         <v>100001</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>VLOOKUP(F6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2142,15 +2159,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="3">
         <v>100001</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2159,13 +2179,13 @@
         <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>VLOOKUP(F7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2175,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3">
         <v>100002</v>
@@ -2186,13 +2206,13 @@
         <v>200001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(F8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2202,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2">
         <v>200001</v>
@@ -2211,18 +2231,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>VLOOKUP(F9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2232,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3">
         <v>200001</v>
@@ -2240,10 +2260,13 @@
       <c r="P9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2252,13 +2275,13 @@
         <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(F10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2268,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="3">
         <v>200002</v>
@@ -2282,13 +2305,13 @@
         <v>300001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>VLOOKUP(F11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2298,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" s="3">
         <v>300001</v>
@@ -2309,13 +2332,13 @@
         <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>VLOOKUP(F12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2325,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="3">
         <v>300002</v>
@@ -2336,13 +2359,13 @@
         <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>VLOOKUP(F13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2352,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" s="3">
         <v>300003</v>
@@ -2363,13 +2386,13 @@
         <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>VLOOKUP(F14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2379,7 +2402,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J14" s="3">
         <v>300004</v>
@@ -2390,13 +2413,13 @@
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>VLOOKUP(F15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2406,24 +2429,24 @@
         <v>6</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" s="3">
         <v>300005</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>VLOOKUP(F16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2433,27 +2456,30 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>VLOOKUP(F17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2463,30 +2489,33 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="3">
         <v>100001</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
       </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>VLOOKUP(F18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2496,12 +2525,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" s="3">
         <v>500001</v>
       </c>
-      <c r="S18" s="3">
+      <c r="R18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
         <v>2</v>
       </c>
     </row>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9500"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="W1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>id</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>maxCd</t>
   </si>
   <si>
     <t>~选择目标备注</t>
@@ -567,9 +570,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -593,9 +596,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,81 +605,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,16 +626,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +688,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,6 +727,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +751,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +766,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -805,157 +814,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,17 +1005,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,17 +1018,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1046,11 +1038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,17 +1077,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,152 +1107,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,10 +1894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -1894,21 +1906,22 @@
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="58.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="3" customWidth="1"/>
-    <col min="12" max="14" width="14.125" style="3" customWidth="1"/>
-    <col min="15" max="18" width="18" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.375" style="3"/>
+    <col min="5" max="5" width="13.7" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="3" customWidth="1"/>
+    <col min="13" max="15" width="14.125" style="3" customWidth="1"/>
+    <col min="16" max="19" width="18" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,40 +1937,40 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="8" t="s">
@@ -1966,574 +1979,628 @@
       <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:22">
+    <row r="2" s="1" customFormat="1" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" s="2" customFormat="1" spans="1:22">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>VLOOKUP(F3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>VLOOKUP(G3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全场活着的单位</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
         <v>210001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+    <row r="4" s="2" customFormat="1" spans="1:22">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>VLOOKUP(F4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>VLOOKUP(G4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
         <v>210002</v>
       </c>
-      <c r="R4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="S4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
         <v>2</v>
       </c>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
+    <row r="5" s="2" customFormat="1" spans="1:11">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f>VLOOKUP(F5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(G5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>最近的敌方活着的单位</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2">
         <v>100001</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>VLOOKUP(F6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>VLOOKUP(G6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="3">
         <v>100001</v>
       </c>
-      <c r="R6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="S6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>VLOOKUP(F7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>VLOOKUP(G7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全体敌方活着的单位</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3">
         <v>100002</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:16">
+    <row r="8" s="2" customFormat="1" spans="1:17">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>VLOOKUP(F8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>VLOOKUP(G8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>最近的敌方活着的单位</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
         <v>200001</v>
       </c>
-      <c r="P8" s="2" t="b">
+      <c r="Q8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>VLOOKUP(F9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>VLOOKUP(G9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3">
         <v>200001</v>
       </c>
-      <c r="P9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="Q9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>VLOOKUP(F10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>49</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>VLOOKUP(G10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全体敌方活着的单位</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="3">
         <v>200002</v>
       </c>
-      <c r="P10" s="3" t="b">
+      <c r="Q10" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>VLOOKUP(F11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>VLOOKUP(G11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方血量最少的单位</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="3">
         <v>300001</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>VLOOKUP(F12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>VLOOKUP(G12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方血量最少的单位</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="3">
         <v>300002</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>VLOOKUP(F13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>VLOOKUP(G13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="3">
         <v>300003</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>VLOOKUP(F14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>VLOOKUP(G14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="3">
         <v>300004</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f>VLOOKUP(F15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>VLOOKUP(G15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体活着的单位</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="3">
         <v>300005</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f>VLOOKUP(F16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="E16" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>VLOOKUP(G16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>VLOOKUP(F17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>VLOOKUP(G17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="3">
         <v>100001</v>
       </c>
-      <c r="R17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="T17" s="3">
         <v>1</v>
       </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="3">
         <v>500001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>VLOOKUP(F18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>VLOOKUP(G18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="3">
         <v>500001</v>
       </c>
-      <c r="R18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="S18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2551,7 +2618,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330986C4-2B80-4D13-9416-5B6C54821E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,18 +18,18 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1">
+    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -563,18 +569,47 @@
   <si>
     <t>Carcano1938_png</t>
   </si>
+  <si>
+    <t>指定眩晕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LadyMadeSTAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>png</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕目标2回合</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -596,150 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -750,8 +641,34 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,31 +677,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
+        <fgColor theme="7" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,176 +729,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1004,255 +753,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,75 +796,34 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="3">
           <cell r="A3">
             <v>1</v>
@@ -1888,25 +1354,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:W25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="58.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.7" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
@@ -1921,7 +1387,7 @@
     <col min="22" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:23">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,7 +1527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:22">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -2075,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>VLOOKUP(G3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2094,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:22">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -2108,7 +1574,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="str">
         <f>VLOOKUP(G4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2136,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
@@ -2148,9 +1614,6 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>VLOOKUP(G5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2166,7 +1629,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
@@ -2179,9 +1642,7 @@
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="str">
         <f>VLOOKUP(G6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -2205,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
@@ -2218,9 +1679,7 @@
       <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2">
-        <v>9</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
         <f>VLOOKUP(G7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全体敌方活着的单位</v>
@@ -2235,7 +1694,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:17">
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
@@ -2247,9 +1706,6 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>VLOOKUP(G8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2268,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
@@ -2281,9 +1737,7 @@
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2">
-        <v>11</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="str">
         <f>VLOOKUP(G9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -2310,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
@@ -2323,9 +1777,7 @@
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2">
-        <v>12</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
         <f>VLOOKUP(G10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全体敌方活着的单位</v>
@@ -2343,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
@@ -2356,9 +1808,7 @@
       <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2">
-        <v>13</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="str">
         <f>VLOOKUP(G11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方血量最少的单位</v>
@@ -2373,7 +1823,7 @@
         <v>300001</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
@@ -2386,9 +1836,7 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2">
-        <v>14</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="str">
         <f>VLOOKUP(G12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方血量最少的单位</v>
@@ -2403,7 +1851,7 @@
         <v>300002</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
@@ -2416,9 +1864,7 @@
       <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2">
-        <v>15</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="str">
         <f>VLOOKUP(G13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体</v>
@@ -2433,7 +1879,7 @@
         <v>300003</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
@@ -2446,9 +1892,7 @@
       <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2">
-        <v>16</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="str">
         <f>VLOOKUP(G14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体</v>
@@ -2463,7 +1907,7 @@
         <v>300004</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
@@ -2476,9 +1920,7 @@
       <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2">
-        <v>17</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="str">
         <f>VLOOKUP(G15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体活着的单位</v>
@@ -2493,7 +1935,7 @@
         <v>300005</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
@@ -2506,9 +1948,7 @@
       <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2">
-        <v>18</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="str">
         <f>VLOOKUP(G16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -2529,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
@@ -2542,9 +1982,7 @@
       <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="2">
-        <v>19</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="str">
         <f>VLOOKUP(G17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -2568,21 +2006,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="3">
-        <v>500001</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>400003</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E18" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>VLOOKUP(G18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2591,40 +2029,82 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="3">
-        <v>500001</v>
+      <c r="H18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100002</v>
       </c>
       <c r="S18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
         <v>1</v>
       </c>
       <c r="U18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>500001</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>VLOOKUP(G19,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="3">
+        <v>500001</v>
+      </c>
+      <c r="S19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>2</v>
+      </c>
+      <c r="V19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330986C4-2B80-4D13-9416-5B6C54821E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,18 +12,18 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
     <author>lyvoi</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="W1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -303,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>id</t>
   </si>
@@ -561,20 +555,19 @@
     <t>powBuffSelf_png</t>
   </si>
   <si>
-    <t>指定驱除</t>
-  </si>
-  <si>
-    <t>将选中敌方单位从游戏中排除</t>
-  </si>
-  <si>
-    <t>Carcano1938_png</t>
-  </si>
-  <si>
     <t>指定眩晕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕目标2回合</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>LadyMadeSTAR</t>
     </r>
     <r>
@@ -582,9 +575,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_</t>
     </r>
@@ -594,22 +585,31 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>png</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕目标2回合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定驱除</t>
+  </si>
+  <si>
+    <t>将选中敌方单位从游戏中排除</t>
+  </si>
+  <si>
+    <t>Carcano1938_png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,6 +632,157 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -641,34 +792,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,7 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,19 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39982299264503923"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,13 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,8 +848,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -753,13 +1058,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +1319,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,37 +1343,75 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="3">
           <cell r="A3">
             <v>1</v>
@@ -1354,19 +1942,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
@@ -1387,7 +1975,7 @@
     <col min="22" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,22 +1988,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1424,25 +2012,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="10" t="s">
@@ -1458,7 +2046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1471,20 +2059,20 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1493,25 +2081,25 @@
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="10" t="s">
@@ -1527,7 +2115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:22">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -1541,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>VLOOKUP(G3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1556,11 +2144,14 @@
       <c r="K3" s="2">
         <v>210001</v>
       </c>
+      <c r="Q3" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="V3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:22">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -1574,7 +2165,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="str">
         <f>VLOOKUP(G4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1589,6 +2180,9 @@
       <c r="K4" s="2">
         <v>210002</v>
       </c>
+      <c r="Q4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="S4" s="2" t="b">
         <v>1</v>
       </c>
@@ -1602,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" spans="1:17">
       <c r="A5" s="2">
         <v>100001</v>
       </c>
@@ -1614,6 +2208,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>VLOOKUP(G5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1628,8 +2225,11 @@
       <c r="K5" s="2">
         <v>100001</v>
       </c>
+      <c r="Q5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>100002</v>
       </c>
@@ -1642,7 +2242,9 @@
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
       <c r="F6" s="2" t="str">
         <f>VLOOKUP(G6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -1656,6 +2258,9 @@
       <c r="K6" s="3">
         <v>100001</v>
       </c>
+      <c r="Q6" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="S6" s="3" t="b">
         <v>1</v>
       </c>
@@ -1666,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="3">
         <v>100003</v>
       </c>
@@ -1679,7 +2284,9 @@
       <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
       <c r="F7" s="2" t="str">
         <f>VLOOKUP(G7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全体敌方活着的单位</v>
@@ -1693,8 +2300,11 @@
       <c r="K7" s="3">
         <v>100002</v>
       </c>
+      <c r="Q7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" spans="1:17">
       <c r="A8" s="2">
         <v>200001</v>
       </c>
@@ -1706,6 +2316,9 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>VLOOKUP(G8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -1720,11 +2333,11 @@
       <c r="K8" s="2">
         <v>200001</v>
       </c>
-      <c r="Q8" s="2" t="b">
+      <c r="Q8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="3">
         <v>200002</v>
       </c>
@@ -1737,7 +2350,9 @@
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
       <c r="F9" s="2" t="str">
         <f>VLOOKUP(G9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -1764,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="3">
         <v>200003</v>
       </c>
@@ -1777,7 +2392,9 @@
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>17</v>
+      </c>
       <c r="F10" s="2" t="str">
         <f>VLOOKUP(G10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>全体敌方活着的单位</v>
@@ -1795,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>300001</v>
       </c>
@@ -1808,7 +2425,9 @@
       <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>18</v>
+      </c>
       <c r="F11" s="2" t="str">
         <f>VLOOKUP(G11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方血量最少的单位</v>
@@ -1822,8 +2441,11 @@
       <c r="K11" s="3">
         <v>300001</v>
       </c>
+      <c r="Q11" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="3">
         <v>300002</v>
       </c>
@@ -1836,7 +2458,9 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>19</v>
+      </c>
       <c r="F12" s="2" t="str">
         <f>VLOOKUP(G12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方血量最少的单位</v>
@@ -1850,8 +2474,11 @@
       <c r="K12" s="3">
         <v>300002</v>
       </c>
+      <c r="Q12" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="3">
         <v>300003</v>
       </c>
@@ -1864,7 +2491,9 @@
       <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
       <c r="F13" s="2" t="str">
         <f>VLOOKUP(G13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体</v>
@@ -1878,8 +2507,11 @@
       <c r="K13" s="3">
         <v>300003</v>
       </c>
+      <c r="Q13" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="3">
         <v>300004</v>
       </c>
@@ -1892,7 +2524,9 @@
       <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>21</v>
+      </c>
       <c r="F14" s="2" t="str">
         <f>VLOOKUP(G14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体</v>
@@ -1906,8 +2540,11 @@
       <c r="K14" s="3">
         <v>300004</v>
       </c>
+      <c r="Q14" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="3">
         <v>300005</v>
       </c>
@@ -1920,7 +2557,9 @@
       <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>22</v>
+      </c>
       <c r="F15" s="2" t="str">
         <f>VLOOKUP(G15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>我方全体活着的单位</v>
@@ -1934,8 +2573,11 @@
       <c r="K15" s="3">
         <v>300005</v>
       </c>
+      <c r="Q15" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <v>400001</v>
       </c>
@@ -1948,7 +2590,9 @@
       <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>23</v>
+      </c>
       <c r="F16" s="2" t="str">
         <f>VLOOKUP(G16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -1962,6 +2606,9 @@
       <c r="O16" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="Q16" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="S16" s="3" t="b">
         <v>1</v>
       </c>
@@ -1969,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>400002</v>
       </c>
@@ -1982,7 +2629,9 @@
       <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>24</v>
+      </c>
       <c r="F17" s="2" t="str">
         <f>VLOOKUP(G17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
         <v>选中单位</v>
@@ -1996,6 +2645,9 @@
       <c r="L17" s="3">
         <v>100001</v>
       </c>
+      <c r="Q17" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="S17" s="3" t="b">
         <v>1</v>
       </c>
@@ -2006,21 +2658,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21">
       <c r="A18" s="2">
         <v>400003</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>75</v>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>77</v>
+      <c r="D18" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>VLOOKUP(G18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2029,12 +2681,15 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>76</v>
+      <c r="H18" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="L18" s="3">
         <v>100002</v>
       </c>
+      <c r="Q18" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="S18" s="3" t="b">
         <v>1</v>
       </c>
@@ -2045,21 +2700,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22">
       <c r="A19" s="3">
         <v>500001</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>VLOOKUP(G19,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
@@ -2069,11 +2724,14 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K19" s="3">
         <v>500001</v>
       </c>
+      <c r="Q19" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="S19" s="3" t="b">
         <v>1</v>
       </c>
@@ -2084,27 +2742,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>id</t>
   </si>
@@ -421,15 +421,6 @@
     <t>target_png</t>
   </si>
   <si>
-    <t>低阶法术</t>
-  </si>
-  <si>
-    <t>对最近的敌方造成1倍法术伤害</t>
-  </si>
-  <si>
-    <t>IWantU_png</t>
-  </si>
-  <si>
     <t>精准法术</t>
   </si>
   <si>
@@ -448,7 +439,7 @@
     <t>Shotgun_png</t>
   </si>
   <si>
-    <t>低阶挥砍</t>
+    <t>近距挥砍</t>
   </si>
   <si>
     <t>对最近的敌方造成1倍物理伤害</t>
@@ -509,6 +500,12 @@
   </si>
   <si>
     <t>Invincible_35_png</t>
+  </si>
+  <si>
+    <t>轻度治愈</t>
+  </si>
+  <si>
+    <t>回复指定单位 0.2 * 攻击的血量（可复活）</t>
   </si>
   <si>
     <t>增加护盾</t>
@@ -588,6 +585,12 @@
       </rPr>
       <t>png</t>
     </r>
+  </si>
+  <si>
+    <t>随机眩晕</t>
+  </si>
+  <si>
+    <t>随机3个目标眩晕2回合</t>
   </si>
   <si>
     <t>指定驱除</t>
@@ -1682,6 +1685,14 @@
           </cell>
           <cell r="B36" t="str">
             <v>敌方最远的两个活着的单位</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>35</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>随机三个活着的单位</v>
           </cell>
         </row>
       </sheetData>
@@ -1948,10 +1959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -2132,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>VLOOKUP(G3,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G3,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>全场活着的单位</v>
       </c>
       <c r="G3" s="2">
@@ -2168,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>VLOOKUP(G4,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G4,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
       </c>
       <c r="G4" s="2">
@@ -2196,42 +2207,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:17">
-      <c r="A5" s="2">
+    <row r="5" spans="1:21">
+      <c r="A5" s="3">
+        <v>100002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(G5,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3">
         <v>100001</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f>VLOOKUP(G5,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>最近的敌方活着的单位</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="Q5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2">
-        <v>100001</v>
-      </c>
-      <c r="Q5" s="3" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
-        <v>100002</v>
+        <v>100003</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>36</v>
@@ -2243,103 +2263,103 @@
         <v>37</v>
       </c>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>VLOOKUP(G6,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>选中单位</v>
+        <f>VLOOKUP(G6,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>全体敌方活着的单位</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K6" s="3">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="Q6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="S6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:17">
+      <c r="A7" s="2">
+        <v>200001</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>VLOOKUP(G7,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>最近的敌方活着的单位</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2">
+        <v>200001</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="3">
-        <v>100003</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="8" spans="1:21">
+      <c r="A8" s="3">
+        <v>200002</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>VLOOKUP(G8,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="3">
+        <v>200001</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>VLOOKUP(G7,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>全体敌方活着的单位</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="3">
-        <v>100002</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:17">
-      <c r="A8" s="2">
-        <v>200001</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f>VLOOKUP(G8,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>最近的敌方活着的单位</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="2">
-        <v>200001</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:17">
       <c r="A9" s="3">
-        <v>200002</v>
+        <v>200003</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>45</v>
@@ -2351,85 +2371,76 @@
         <v>46</v>
       </c>
       <c r="E9" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>VLOOKUP(G9,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>选中单位</v>
+        <f>VLOOKUP(G9,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>全体敌方活着的单位</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="3">
-        <v>200001</v>
+        <v>200002</v>
       </c>
       <c r="Q9" s="3" t="b">
         <v>1</v>
-      </c>
-      <c r="S9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3">
-        <v>200003</v>
+      <c r="A10" s="2">
+        <v>300001</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>VLOOKUP(G10,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>全体敌方活着的单位</v>
+        <f>VLOOKUP(G10,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>我方血量最少的单位</v>
       </c>
       <c r="G10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K10" s="3">
-        <v>200002</v>
+        <v>300001</v>
       </c>
       <c r="Q10" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>300001</v>
+      <c r="A11" s="3">
+        <v>300002</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>VLOOKUP(G11,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G11,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>我方血量最少的单位</v>
       </c>
       <c r="G11" s="3">
@@ -2439,7 +2450,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="3">
-        <v>300001</v>
+        <v>300002</v>
       </c>
       <c r="Q11" s="3" t="b">
         <v>1</v>
@@ -2447,7 +2458,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>54</v>
@@ -2459,20 +2470,20 @@
         <v>55</v>
       </c>
       <c r="E12" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>VLOOKUP(G12,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>我方血量最少的单位</v>
+        <f>VLOOKUP(G12,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>我方全体</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="K12" s="3">
-        <v>300002</v>
+        <v>300003</v>
       </c>
       <c r="Q12" s="3" t="b">
         <v>1</v>
@@ -2480,22 +2491,22 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>VLOOKUP(G13,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G13,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>我方全体</v>
       </c>
       <c r="G13" s="3">
@@ -2505,43 +2516,35 @@
         <v>59</v>
       </c>
       <c r="K13" s="3">
-        <v>300003</v>
+        <v>300004</v>
       </c>
       <c r="Q13" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>300004</v>
+        <v>300005</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2">
-        <v>21</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="str">
-        <f>VLOOKUP(G14,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
-        <v>我方全体</v>
+        <f>VLOOKUP(G14,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
       </c>
       <c r="G14" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="3">
-        <v>300004</v>
-      </c>
-      <c r="Q14" s="3" t="b">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2549,26 +2552,26 @@
         <v>300005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2">
         <v>22</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>VLOOKUP(G15,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G15,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>我方全体活着的单位</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="3">
         <v>300005</v>
@@ -2582,26 +2585,26 @@
         <v>400001</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="2">
         <v>23</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>VLOOKUP(G16,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G16,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -2621,26 +2624,26 @@
         <v>400002</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E17" s="2">
         <v>24</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>VLOOKUP(G17,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G17,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L17" s="3">
         <v>100001</v>
@@ -2663,26 +2666,26 @@
         <v>400003</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E18" s="2">
         <v>25</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>VLOOKUP(G18,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+        <f>VLOOKUP(G18,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="3">
         <v>100002</v>
@@ -2700,63 +2703,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="3">
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>400004</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>VLOOKUP(G19,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>随机三个活着的单位</v>
+      </c>
+      <c r="G19" s="3">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="3">
+        <v>100002</v>
+      </c>
+      <c r="Q19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="3">
         <v>500001</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2">
         <v>26</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f>VLOOKUP(G19,[1]Sheet1!$A$3:$B$36,2,FALSE)</f>
+      <c r="F20" s="2" t="str">
+        <f>VLOOKUP(G20,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="3">
         <v>500001</v>
       </c>
-      <c r="Q19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3">
+      <c r="Q20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
         <v>2</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/xlsx/skill.xlsx
+++ b/config/xlsx/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>id</t>
   </si>
@@ -421,7 +421,7 @@
     <t>target_png</t>
   </si>
   <si>
-    <t>精准法术</t>
+    <t>法攻</t>
   </si>
   <si>
     <t>对选中敌方造成1倍法术伤害</t>
@@ -430,6 +430,12 @@
     <t>AimAttackDistanceTarge_png</t>
   </si>
   <si>
+    <t>奥术爆裂</t>
+  </si>
+  <si>
+    <t>对选中敌方造成2倍法术伤害</t>
+  </si>
+  <si>
     <t>范围法术</t>
   </si>
   <si>
@@ -439,24 +445,24 @@
     <t>Shotgun_png</t>
   </si>
   <si>
+    <t>挥砍</t>
+  </si>
+  <si>
+    <t>对选中敌方造成1倍物理伤害</t>
+  </si>
+  <si>
+    <t>Clear_png</t>
+  </si>
+  <si>
     <t>近距挥砍</t>
   </si>
   <si>
-    <t>对最近的敌方造成1倍物理伤害</t>
+    <t>对最近的敌方造成1.5倍物理伤害</t>
   </si>
   <si>
     <t>Fail_png</t>
   </si>
   <si>
-    <t>精准挥砍</t>
-  </si>
-  <si>
-    <t>对选中敌方造成1倍物理伤害</t>
-  </si>
-  <si>
-    <t>Clear_png</t>
-  </si>
-  <si>
     <t>范围挥砍</t>
   </si>
   <si>
@@ -466,55 +472,91 @@
     <t>Coldweapon_png</t>
   </si>
   <si>
+    <t>碎斩</t>
+  </si>
+  <si>
+    <t>对选中敌方单位造成1.8倍物理伤害</t>
+  </si>
+  <si>
+    <t>破盾斩</t>
+  </si>
+  <si>
+    <t>对选中敌方单位造成1倍物理伤害，对护盾伤害翻倍</t>
+  </si>
+  <si>
+    <t>破盾狂斩</t>
+  </si>
+  <si>
+    <t>对选中敌方单位造成1.8倍物理伤害，对护盾伤害翻倍</t>
+  </si>
+  <si>
+    <t>死者苏生</t>
+  </si>
+  <si>
+    <t>指定单位回复 0.5 * 攻击 的血量 （可复活）</t>
+  </si>
+  <si>
+    <t>rescue_png</t>
+  </si>
+  <si>
+    <t>单体复活</t>
+  </si>
+  <si>
+    <t>回复我方血量最少的单位 0.5 * 攻击 的血量（可复活）</t>
+  </si>
+  <si>
+    <t>reinforce_png</t>
+  </si>
+  <si>
+    <t>群体治愈</t>
+  </si>
+  <si>
+    <t>回复我方全体单位 0.3 * 攻击的血量（不可复活）</t>
+  </si>
+  <si>
+    <t>VariableBuff_png</t>
+  </si>
+  <si>
+    <t>群体复活</t>
+  </si>
+  <si>
+    <t>回复我方全体单位 0.1 * 攻击的血量（可复活）</t>
+  </si>
+  <si>
+    <t>Invincible_35_png</t>
+  </si>
+  <si>
+    <t>轻度治愈</t>
+  </si>
+  <si>
+    <t>回复指定单位 0.2 * 攻击的血量（可复活）</t>
+  </si>
+  <si>
+    <t>增加护盾</t>
+  </si>
+  <si>
+    <t>增加我方全体生存单位 0.3 * 攻击的护盾值</t>
+  </si>
+  <si>
+    <t>shield_png</t>
+  </si>
+  <si>
     <t>低阶治愈</t>
   </si>
   <si>
     <t>回复我方血量最少的单位 1 * 攻击 的血量（不可复活）</t>
   </si>
   <si>
-    <t>rescue_png</t>
-  </si>
-  <si>
-    <t>单体复活</t>
-  </si>
-  <si>
-    <t>回复我方血量最少的单位 0.5 * 攻击 的血量（可复活）</t>
-  </si>
-  <si>
-    <t>reinforce_png</t>
-  </si>
-  <si>
-    <t>群体治愈</t>
-  </si>
-  <si>
-    <t>回复我方全体单位 0.3 * 攻击的血量（不可复活）</t>
-  </si>
-  <si>
-    <t>VariableBuff_png</t>
-  </si>
-  <si>
-    <t>群体复活</t>
-  </si>
-  <si>
-    <t>回复我方全体单位 0.1 * 攻击的血量（可复活）</t>
-  </si>
-  <si>
-    <t>Invincible_35_png</t>
-  </si>
-  <si>
-    <t>轻度治愈</t>
-  </si>
-  <si>
-    <t>回复指定单位 0.2 * 攻击的血量（可复活）</t>
-  </si>
-  <si>
-    <t>增加护盾</t>
-  </si>
-  <si>
-    <t>增加我方全体生存单位 0.3 * 攻击的护盾值</t>
-  </si>
-  <si>
-    <t>shield_png</t>
+    <t>基础治疗</t>
+  </si>
+  <si>
+    <t>指定单位回复 1 * 攻击的血量（不可复活）</t>
+  </si>
+  <si>
+    <t>强化治疗</t>
+  </si>
+  <si>
+    <t>指定单位回复 0.8 * 攻击的血量，并提高20%的伤害持续3回合</t>
   </si>
   <si>
     <t>定点驱散</t>
@@ -526,7 +568,7 @@
     <t>empty_png</t>
   </si>
   <si>
-    <t>低级强化</t>
+    <t>攻击强化</t>
   </si>
   <si>
     <r>
@@ -555,7 +597,7 @@
     <t>指定眩晕</t>
   </si>
   <si>
-    <t>眩晕目标2回合</t>
+    <t>对目标造成0.5*攻击的伤害，并眩晕目标2回合</t>
   </si>
   <si>
     <r>
@@ -593,13 +635,46 @@
     <t>随机3个目标眩晕2回合</t>
   </si>
   <si>
-    <t>指定驱除</t>
-  </si>
-  <si>
-    <t>将选中敌方单位从游戏中排除</t>
+    <t>物理减免</t>
+  </si>
+  <si>
+    <t>指定单位减免10%的魔法伤害，持续3回合</t>
+  </si>
+  <si>
+    <t>armorBuffSelf_png</t>
+  </si>
+  <si>
+    <t>魔法减免</t>
+  </si>
+  <si>
+    <t>指定单位减少10%的魔法伤害，持续3回合</t>
+  </si>
+  <si>
+    <t>魔法终免</t>
+  </si>
+  <si>
+    <t>指定单位减少5点最终魔法伤害，持续3回合</t>
+  </si>
+  <si>
+    <t>物理终免</t>
+  </si>
+  <si>
+    <t>指定单位减少5点最终物理伤害，持续3回合</t>
+  </si>
+  <si>
+    <t>灵魂驱散</t>
+  </si>
+  <si>
+    <t>将选中敌方已死亡单位从游戏中排除</t>
   </si>
   <si>
     <t>Carcano1938_png</t>
+  </si>
+  <si>
+    <t>湮灭击杀</t>
+  </si>
+  <si>
+    <t>对指定敌方单位造成1*攻击的物理伤害，如果造成单位死亡则将其从游戏中排除</t>
   </si>
 </sst>
 </file>
@@ -607,12 +682,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,10 +709,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,25 +738,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,11 +761,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,25 +777,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,14 +802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,12 +817,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -778,10 +846,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,7 +864,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,7 +921,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,175 +963,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,23 +1115,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,17 +1125,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1153,9 +1186,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,152 +1214,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,9 +1370,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1693,6 +1740,14 @@
           </cell>
           <cell r="B37" t="str">
             <v>随机三个活着的单位</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>36</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>我放活着的血量最少的单位</v>
           </cell>
         </row>
       </sheetData>
@@ -1959,10 +2014,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -1999,22 +2058,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2023,34 +2082,34 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -2070,20 +2129,20 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2092,34 +2151,34 @@
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -2209,20 +2268,18 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2">
-        <v>13</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="str">
         <f>VLOOKUP(G5,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
@@ -2249,9 +2306,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>36</v>
@@ -2263,53 +2320,57 @@
         <v>37</v>
       </c>
       <c r="E6" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>VLOOKUP(G6,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>全体敌方活着的单位</v>
+        <v>选中单位</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3">
         <v>100002</v>
       </c>
-      <c r="Q6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:17">
-      <c r="A7" s="2">
-        <v>200001</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="S6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="str">
         <f>VLOOKUP(G7,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>最近的敌方活着的单位</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2">
-        <v>200001</v>
+        <v>全体敌方活着的单位</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100003</v>
       </c>
       <c r="Q7" s="3" t="b">
         <v>1</v>
@@ -2317,20 +2378,18 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="3">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2">
-        <v>16</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="str">
         <f>VLOOKUP(G8,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
@@ -2339,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="3">
         <v>200001</v>
@@ -2357,185 +2416,213 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="3">
-        <v>200003</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:17">
+      <c r="A9" s="2">
+        <v>200002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2">
-        <v>17</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>VLOOKUP(G9,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>全体敌方活着的单位</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>最近的敌方活着的单位</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2">
+        <v>200001</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3">
+        <v>200003</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="3">
-        <v>200002</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>300001</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
         <f>VLOOKUP(G10,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>我方血量最少的单位</v>
+        <v>全体敌方活着的单位</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3">
+        <v>200002</v>
+      </c>
+      <c r="Q10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="3">
+        <v>200004</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300001</v>
-      </c>
-      <c r="Q10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3">
-        <v>300002</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>VLOOKUP(G11,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>我方血量最少的单位</v>
+        <v>选中单位</v>
       </c>
       <c r="G11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="3">
+        <v>200004</v>
+      </c>
+      <c r="Q11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="3">
+        <v>200005</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="3">
-        <v>300002</v>
-      </c>
-      <c r="Q11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3">
-        <v>300003</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="str">
         <f>VLOOKUP(G12,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>我方全体</v>
+        <v>选中单位</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K12" s="3">
-        <v>300003</v>
+        <v>200005</v>
       </c>
       <c r="Q12" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:21">
       <c r="A13" s="3">
-        <v>300004</v>
+        <v>200006</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2">
-        <v>21</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="str">
         <f>VLOOKUP(G13,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>我方全体</v>
+        <v>选中单位</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>300004</v>
-      </c>
+        <v>200006</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3">
-        <v>300005</v>
+        <v>300001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
       <c r="F14" s="2" t="str">
         <f>VLOOKUP(G14,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
@@ -2544,139 +2631,118 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>58</v>
+      </c>
+      <c r="K14" s="3">
+        <v>300001</v>
+      </c>
+      <c r="S14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
-        <v>300005</v>
+        <v>300002</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2">
-        <v>22</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="str">
         <f>VLOOKUP(G15,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>我方全体活着的单位</v>
+        <v>我方血量最少的单位</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K15" s="3">
-        <v>300005</v>
-      </c>
-      <c r="Q15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="2">
-        <v>400001</v>
+        <v>300002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>300003</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>VLOOKUP(G16,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>选中单位</v>
+        <v>我方全体</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="2">
-        <v>400002</v>
+        <v>64</v>
+      </c>
+      <c r="K16" s="3">
+        <v>300003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>300004</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2">
-        <v>24</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="str">
         <f>VLOOKUP(G17,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>选中单位</v>
+        <v>我方全体</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100001</v>
-      </c>
-      <c r="Q17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="K17" s="3">
+        <v>300004</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="2">
-        <v>400003</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
+      <c r="A18" s="3">
+        <v>300005</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2">
-        <v>25</v>
-      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="str">
         <f>VLOOKUP(G18,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
@@ -2684,115 +2750,618 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100002</v>
-      </c>
-      <c r="Q18" s="3" t="b">
-        <v>1</v>
+      <c r="H18" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="S18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="T18" s="3">
-        <v>1</v>
-      </c>
+      <c r="T18" s="3"/>
       <c r="U18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="2">
-        <v>400004</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>300005</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="str">
         <f>VLOOKUP(G19,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
-        <v>随机三个活着的单位</v>
+        <v>我方全体活着的单位</v>
       </c>
       <c r="G19" s="3">
-        <v>35</v>
-      </c>
-      <c r="H19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="3">
+        <v>300005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>300006</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="3">
-        <v>100002</v>
-      </c>
-      <c r="Q19" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="3">
-        <v>500001</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C20" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="2">
-        <v>26</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="str">
         <f>VLOOKUP(G20,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>我放活着的血量最少的单位</v>
+      </c>
+      <c r="G20" s="3">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="3">
+        <v>300006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="2">
+        <v>300007</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="str">
+        <f>VLOOKUP(G21,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
         <v>选中单位</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="3">
+        <v>300001</v>
+      </c>
+      <c r="S21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:21">
+      <c r="A22" s="2">
+        <v>300008</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="3">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="str">
+        <f>VLOOKUP(G22,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>300008</v>
+      </c>
+      <c r="L22" s="3">
+        <v>300008</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2">
+        <v>400001</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="str">
+        <f>VLOOKUP(G23,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="2">
+        <v>400002</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="str">
+        <f>VLOOKUP(G24,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100001</v>
+      </c>
+      <c r="Q24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2">
+        <v>400003</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>VLOOKUP(G25,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="3">
+        <v>400003</v>
+      </c>
+      <c r="L25" s="3">
+        <v>400003</v>
+      </c>
+      <c r="Q25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
+        <v>400004</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f>VLOOKUP(G26,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>随机三个活着的单位</v>
+      </c>
+      <c r="G26" s="3">
+        <v>35</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100002</v>
+      </c>
+      <c r="Q26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="2">
+        <v>400005</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f>VLOOKUP(G27,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="3">
+        <v>400005</v>
+      </c>
+      <c r="S27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="2">
+        <v>400006</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f>VLOOKUP(G28,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="3">
+        <v>400006</v>
+      </c>
+      <c r="S28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="2">
+        <v>400007</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f>VLOOKUP(G29,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="3">
+        <v>400007</v>
+      </c>
+      <c r="S29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="2">
+        <v>400008</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>VLOOKUP(G30,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="3">
+        <v>400008</v>
+      </c>
+      <c r="S30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:21">
+      <c r="A31" s="2">
+        <v>400009</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>VLOOKUP(G31,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="3">
+        <v>400003</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="3">
         <v>500001</v>
       </c>
-      <c r="Q20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f>VLOOKUP(G32,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="3">
+        <v>500001</v>
+      </c>
+      <c r="Q32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="3">
         <v>2</v>
       </c>
-      <c r="V20" s="3">
+      <c r="U32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
+      <c r="V32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="2">
+        <v>500002</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f>VLOOKUP(G33,[1]Sheet1!$A$3:$B$60,2,FALSE)</f>
+        <v>选中单位</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="3">
+        <v>500002</v>
+      </c>
+      <c r="Q33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1</v>
+      </c>
+      <c r="V33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
